--- a/public/data/070315.xlsx
+++ b/public/data/070315.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data.csv" sheetId="1" r:id="rId1"/>
@@ -271,8 +271,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -366,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -403,6 +405,7 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -439,6 +442,7 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -771,7 +775,7 @@
   <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+      <selection activeCell="D161" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
